--- a/ConfigMigrator/input/Input.xlsx
+++ b/ConfigMigrator/input/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Badri\accelarator\ConfigMigrator\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E66832-1784-420C-AD94-34E52E580385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FF09C-50D3-40D7-A546-62427414795F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{47443D72-44C3-43DF-9A8F-01CAA589CAD1}"/>
   </bookViews>
@@ -89,15 +89,6 @@
     <t>Payload</t>
   </si>
   <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>conditionnum in ["COG_TEST2"]</t>
-  </si>
-  <si>
-    <t>conditionnum in ["COG_TEST1"]</t>
-  </si>
-  <si>
     <t>domaintype="ALN" and domainid="COG_TESTALN"</t>
   </si>
   <si>
@@ -117,6 +108,15 @@
   </si>
   <si>
     <t>83jk95pi6gcruc3luci5athsu2c1nbnm08bhp6pd</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>conditionnum in ["COG_TEST1","COG_TEST2"]</t>
+  </si>
+  <si>
+    <t>conditionnum in ["COG_TEST3"]</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +537,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,44 +583,69 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,15 +687,15 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
